--- a/biology/Médecine/1396_en_santé_et_médecine/1396_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1396_en_santé_et_médecine/1396_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1396_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1396_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1396 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1396_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1396_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les chirurgiens de Paris font d'importantes additions à leurs statuts : ils soumettent par exemple à examen le titre de bachelier, interdisent aux bacheliers de prendre des apprentis, et exigent des apprentis la connaissance du latin[1].
-Création à Valence, en Espagne, d'un hôpital destiné par Pere Bou, son fondateur, à l'accueil des « pauvres pêcheurs malades » (« pobres pescadores enfermos[2] »).
-Fondation d'une maison du Saint-Esprit à Abo, premier établissement de Finlande voué à l'accueil des malades mentaux[3].
-1396-1397 : création d'un hôpital à Strasbourg, en Alsace, futur hôpital des bourgeois, puis hôpital civil[4],[5].
-Jeanne la Goutière, sage-femme parisienne, assiste la duchesse d'Orléans pour la naissance de Philippe à Asnières-sur-Oise[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les chirurgiens de Paris font d'importantes additions à leurs statuts : ils soumettent par exemple à examen le titre de bachelier, interdisent aux bacheliers de prendre des apprentis, et exigent des apprentis la connaissance du latin.
+Création à Valence, en Espagne, d'un hôpital destiné par Pere Bou, son fondateur, à l'accueil des « pauvres pêcheurs malades » (« pobres pescadores enfermos »).
+Fondation d'une maison du Saint-Esprit à Abo, premier établissement de Finlande voué à l'accueil des malades mentaux.
+1396-1397 : création d'un hôpital à Strasbourg, en Alsace, futur hôpital des bourgeois, puis hôpital civil,.
+Jeanne la Goutière, sage-femme parisienne, assiste la duchesse d'Orléans pour la naissance de Philippe à Asnières-sur-Oise.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1396_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1396_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mansour ibn Ilyas, médecin persan, dédie son « Anatomie du corps » (Tashrih al-Badan) à Pir Muhammad ibn Omar Cheikh, sultan de Fars en Perse et petit-fils de Tamerlan[7],[8].
-Guillaume Yvoire, barbier chirurgien de Lyon, traduit la Chirurgia magna (« Grande chirurgie ») de Lanfranc de Milan[9].
-Vers 1396 : Bernat Metge, écrivain humaniste catalan, issu d'une famille de médecins[10] de Barcelone, publie sa Medicina apropiada a tot mal (« Médecine appropriée à toutes les maladies »), poème parodique sur la pharmacopée[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mansour ibn Ilyas, médecin persan, dédie son « Anatomie du corps » (Tashrih al-Badan) à Pir Muhammad ibn Omar Cheikh, sultan de Fars en Perse et petit-fils de Tamerlan,.
+Guillaume Yvoire, barbier chirurgien de Lyon, traduit la Chirurgia magna (« Grande chirurgie ») de Lanfranc de Milan.
+Vers 1396 : Bernat Metge, écrivain humaniste catalan, issu d'une famille de médecins de Barcelone, publie sa Medicina apropiada a tot mal (« Médecine appropriée à toutes les maladies »), poème parodique sur la pharmacopée.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1396_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1396_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jacquemette Peguilliote (date de naissance inconnue), sage-femme au service des comtes de Savoie à Chambéry[6].
-Thomas de Voyenne (date de naissance inconnue), maître ès arts et maître en médecine, meurt en Bulgarie où il a suivi le comte de Nevers, Jean sans Peur, à la croisade de Nicopolis[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jacquemette Peguilliote (date de naissance inconnue), sage-femme au service des comtes de Savoie à Chambéry.
+Thomas de Voyenne (date de naissance inconnue), maître ès arts et maître en médecine, meurt en Bulgarie où il a suivi le comte de Nevers, Jean sans Peur, à la croisade de Nicopolis.</t>
         </is>
       </c>
     </row>
